--- a/document/MC_Recruit 단위테스트 결과서(통합)_v1.0.xlsx
+++ b/document/MC_Recruit 단위테스트 결과서(통합)_v1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
   <si>
     <t>메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,10 @@
     <t>홍준석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>공채목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -274,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -367,13 +371,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,6 +461,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,7 +764,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27:G29"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -1197,7 +1217,9 @@
     </row>
     <row r="27" spans="2:9" ht="18" customHeight="1">
       <c r="B27" s="18"/>
-      <c r="C27" s="9"/>
+      <c r="C27" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="D27" s="11"/>
       <c r="E27" s="9" t="s">
         <v>16</v>
@@ -1236,7 +1258,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="18" customHeight="1">
-      <c r="B29" s="18"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="9"/>
       <c r="D29" s="11"/>
       <c r="E29" s="9" t="s">
@@ -5786,14 +5808,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D6:I7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B10:B29"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D6:I7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/document/MC_Recruit 단위테스트 결과서(통합)_v1.0.xlsx
+++ b/document/MC_Recruit 단위테스트 결과서(통합)_v1.0.xlsx
@@ -433,6 +433,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,21 +461,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,7 +764,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -808,44 +808,44 @@
     <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -859,14 +859,14 @@
       <c r="D9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="19"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -890,7 +890,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="B11" s="18"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="9"/>
       <c r="D11" s="11"/>
       <c r="E11" s="9" t="s">
@@ -910,7 +910,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
-      <c r="B12" s="18"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="9"/>
       <c r="D12" s="11"/>
       <c r="E12" s="9" t="s">
@@ -930,7 +930,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1">
-      <c r="B13" s="18"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="9"/>
       <c r="D13" s="11"/>
       <c r="E13" s="9" t="s">
@@ -950,7 +950,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="B14" s="18"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="9"/>
       <c r="D14" s="11"/>
       <c r="E14" s="9" t="s">
@@ -970,7 +970,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="B15" s="18"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="9" t="s">
         <v>26</v>
       </c>
@@ -992,7 +992,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1">
-      <c r="B16" s="18"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="9"/>
       <c r="D16" s="11"/>
       <c r="E16" s="9" t="s">
@@ -1012,7 +1012,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="18" customHeight="1">
-      <c r="B17" s="18"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="9"/>
       <c r="D17" s="11"/>
       <c r="E17" s="9" t="s">
@@ -1032,7 +1032,7 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="18" customHeight="1">
-      <c r="B18" s="18"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="9"/>
       <c r="D18" s="11"/>
       <c r="E18" s="9" t="s">
@@ -1052,7 +1052,7 @@
       </c>
     </row>
     <row r="19" spans="2:9" ht="18" customHeight="1">
-      <c r="B19" s="18"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="9"/>
       <c r="D19" s="11"/>
       <c r="E19" s="9" t="s">
@@ -1072,7 +1072,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="18" customHeight="1">
-      <c r="B20" s="18"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="9" t="s">
         <v>32</v>
       </c>
@@ -1094,7 +1094,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="18" customHeight="1">
-      <c r="B21" s="18"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="9"/>
       <c r="D21" s="11"/>
       <c r="E21" s="9" t="s">
@@ -1114,7 +1114,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" ht="18" customHeight="1">
-      <c r="B22" s="18"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="9"/>
       <c r="D22" s="11"/>
       <c r="E22" s="9" t="s">
@@ -1134,7 +1134,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="18" customHeight="1">
-      <c r="B23" s="18"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="9" t="s">
         <v>36</v>
       </c>
@@ -1156,7 +1156,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="18" customHeight="1">
-      <c r="B24" s="18"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="9"/>
       <c r="D24" s="11"/>
       <c r="E24" s="9" t="s">
@@ -1176,7 +1176,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="18" customHeight="1">
-      <c r="B25" s="18"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="9"/>
       <c r="D25" s="11"/>
       <c r="E25" s="9" t="s">
@@ -1196,7 +1196,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="18" customHeight="1">
-      <c r="B26" s="18"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="9"/>
       <c r="D26" s="11"/>
       <c r="E26" s="9" t="s">
@@ -1216,7 +1216,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="18" customHeight="1">
-      <c r="B27" s="18"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="9" t="s">
         <v>46</v>
       </c>
@@ -1238,7 +1238,7 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="18" customHeight="1">
-      <c r="B28" s="18"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="9"/>
       <c r="D28" s="11"/>
       <c r="E28" s="9" t="s">
